--- a/stepbystep.xlsx
+++ b/stepbystep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihir/Library/CloudStorage/iCloud Drive/Documents/Summer/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B890F876-A8DC-D148-AFB7-88889548DD1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD69356-35F6-CD4D-80D5-7D67118475E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="1180" windowWidth="25440" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>Species information</t>
   </si>
@@ -122,18 +122,6 @@
     <t>cpd43 =&gt; FPR1</t>
   </si>
   <si>
-    <t>FPR2</t>
-  </si>
-  <si>
-    <t>formyl peptide receptor 2/ALXR</t>
-  </si>
-  <si>
-    <t>cpd43 =&gt; FPR2</t>
-  </si>
-  <si>
-    <t>model id</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -155,19 +143,7 @@
     <t>FPR1 =&gt; Ca_macrophage</t>
   </si>
   <si>
-    <t>FPR2 =&gt; Ca_macrophage</t>
-  </si>
-  <si>
     <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>FPR1 &amp; FPR2 =&gt; Sos</t>
   </si>
   <si>
     <t>MAPK</t>
@@ -182,22 +158,13 @@
     <t>Sos =&gt; Ras</t>
   </si>
   <si>
-    <t>Ras =&gt; MEKK1</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
     <t>Ras</t>
   </si>
   <si>
     <t>Ras family of GTPases</t>
   </si>
   <si>
-    <t>MEKK1</t>
-  </si>
-  <si>
-    <t>MEK3</t>
+    <t>FPR1 =&gt; Sos</t>
   </si>
 </sst>
 </file>
@@ -315,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -363,12 +330,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,209 +713,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DL37"/>
+  <dimension ref="A1:DK33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:116" s="7" customFormat="1">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:115" s="7" customFormat="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:116" s="3" customFormat="1">
-      <c r="A2" s="25" t="s">
-        <v>36</v>
+    </row>
+    <row r="2" spans="1:115" s="3" customFormat="1">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:115" ht="18" customHeight="1">
+      <c r="A3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="F3" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:115">
+      <c r="A4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:115">
+      <c r="A5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:116" ht="18" customHeight="1">
-      <c r="A3" s="24">
+    </row>
+    <row r="6" spans="1:115" s="2" customFormat="1">
+      <c r="A6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="19">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="19">
-        <v>0</v>
-      </c>
-      <c r="F3" s="19">
+      <c r="E6" s="19">
         <v>1</v>
-      </c>
-      <c r="G3" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:116">
-      <c r="A4" s="24">
-        <v>1</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="19">
-        <v>0</v>
-      </c>
-      <c r="F4" s="19">
-        <v>1</v>
-      </c>
-      <c r="G4" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:116">
-      <c r="A5" s="24">
-        <v>2</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="19">
-        <v>0</v>
-      </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:116">
-      <c r="A6" s="24">
-        <v>3</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="19">
-        <v>0</v>
       </c>
       <c r="F6" s="19">
         <v>1</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19">
+        <v>3</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+      <c r="AY6"/>
+      <c r="AZ6"/>
+      <c r="BA6"/>
+      <c r="BB6"/>
+      <c r="BC6"/>
+      <c r="BD6"/>
+      <c r="BE6"/>
+      <c r="BF6"/>
+      <c r="BG6"/>
+      <c r="BH6"/>
+      <c r="BI6"/>
+      <c r="BJ6"/>
+      <c r="BK6"/>
+      <c r="BL6"/>
+      <c r="BM6"/>
+      <c r="BN6"/>
+      <c r="BO6"/>
+      <c r="BP6"/>
+      <c r="BQ6"/>
+      <c r="BR6"/>
+      <c r="BS6"/>
+      <c r="BT6"/>
+      <c r="BU6"/>
+      <c r="BV6"/>
+      <c r="BW6"/>
+      <c r="BX6"/>
+      <c r="BY6"/>
+      <c r="BZ6"/>
+      <c r="CA6"/>
+      <c r="CB6"/>
+      <c r="CC6"/>
+      <c r="CD6"/>
+      <c r="CE6"/>
+      <c r="CF6"/>
+      <c r="CG6"/>
+      <c r="CH6"/>
+      <c r="CI6"/>
+      <c r="CJ6"/>
+      <c r="CK6"/>
+      <c r="CL6"/>
+      <c r="CM6"/>
+      <c r="CN6"/>
+      <c r="CO6"/>
+      <c r="CP6"/>
+      <c r="CQ6"/>
+      <c r="CR6"/>
+      <c r="CS6"/>
+      <c r="CT6"/>
+      <c r="CU6"/>
+      <c r="CV6"/>
+      <c r="CW6"/>
+      <c r="CX6"/>
+      <c r="CY6"/>
+      <c r="CZ6"/>
+      <c r="DA6"/>
+      <c r="DB6"/>
+      <c r="DC6"/>
+      <c r="DD6"/>
+      <c r="DE6"/>
+      <c r="DF6"/>
+      <c r="DG6"/>
+      <c r="DH6"/>
+      <c r="DI6"/>
+      <c r="DJ6"/>
+      <c r="DK6"/>
+    </row>
+    <row r="7" spans="1:115" s="2" customFormat="1">
+      <c r="A7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
         <v>0.1</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:116" s="2" customFormat="1">
-      <c r="A7" s="24">
+      <c r="G7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19">
         <v>4</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="19">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19">
-        <v>1</v>
-      </c>
-      <c r="G7" s="19">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
@@ -1060,35 +1120,18 @@
       <c r="DI7"/>
       <c r="DJ7"/>
       <c r="DK7"/>
-      <c r="DL7"/>
-    </row>
-    <row r="8" spans="1:116" s="2" customFormat="1">
-      <c r="A8" s="24">
-        <v>5</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="19">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19">
-        <v>1</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="8" spans="1:115" s="2" customFormat="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -1194,38 +1237,126 @@
       <c r="DI8"/>
       <c r="DJ8"/>
       <c r="DK8"/>
-      <c r="DL8"/>
-    </row>
-    <row r="9" spans="1:116">
-      <c r="A9" s="24">
-        <v>6</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="19">
-        <v>0</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="9" spans="1:115" s="2" customFormat="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:116">
-      <c r="A10" s="24"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
+      <c r="BH9"/>
+      <c r="BI9"/>
+      <c r="BJ9"/>
+      <c r="BK9"/>
+      <c r="BL9"/>
+      <c r="BM9"/>
+      <c r="BN9"/>
+      <c r="BO9"/>
+      <c r="BP9"/>
+      <c r="BQ9"/>
+      <c r="BR9"/>
+      <c r="BS9"/>
+      <c r="BT9"/>
+      <c r="BU9"/>
+      <c r="BV9"/>
+      <c r="BW9"/>
+      <c r="BX9"/>
+      <c r="BY9"/>
+      <c r="BZ9"/>
+      <c r="CA9"/>
+      <c r="CB9"/>
+      <c r="CC9"/>
+      <c r="CD9"/>
+      <c r="CE9"/>
+      <c r="CF9"/>
+      <c r="CG9"/>
+      <c r="CH9"/>
+      <c r="CI9"/>
+      <c r="CJ9"/>
+      <c r="CK9"/>
+      <c r="CL9"/>
+      <c r="CM9"/>
+      <c r="CN9"/>
+      <c r="CO9"/>
+      <c r="CP9"/>
+      <c r="CQ9"/>
+      <c r="CR9"/>
+      <c r="CS9"/>
+      <c r="CT9"/>
+      <c r="CU9"/>
+      <c r="CV9"/>
+      <c r="CW9"/>
+      <c r="CX9"/>
+      <c r="CY9"/>
+      <c r="CZ9"/>
+      <c r="DA9"/>
+      <c r="DB9"/>
+      <c r="DC9"/>
+      <c r="DD9"/>
+      <c r="DE9"/>
+      <c r="DF9"/>
+      <c r="DG9"/>
+      <c r="DH9"/>
+      <c r="DI9"/>
+      <c r="DJ9"/>
+      <c r="DK9"/>
+    </row>
+    <row r="10" spans="1:115">
+      <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -1234,10 +1365,9 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:116">
-      <c r="A11" s="24"/>
+    </row>
+    <row r="11" spans="1:115" s="2" customFormat="1">
+      <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -1246,10 +1376,115 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:116" s="2" customFormat="1">
-      <c r="A12" s="24"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11"/>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+      <c r="BE11"/>
+      <c r="BF11"/>
+      <c r="BG11"/>
+      <c r="BH11"/>
+      <c r="BI11"/>
+      <c r="BJ11"/>
+      <c r="BK11"/>
+      <c r="BL11"/>
+      <c r="BM11"/>
+      <c r="BN11"/>
+      <c r="BO11"/>
+      <c r="BP11"/>
+      <c r="BQ11"/>
+      <c r="BR11"/>
+      <c r="BS11"/>
+      <c r="BT11"/>
+      <c r="BU11"/>
+      <c r="BV11"/>
+      <c r="BW11"/>
+      <c r="BX11"/>
+      <c r="BY11"/>
+      <c r="BZ11"/>
+      <c r="CA11"/>
+      <c r="CB11"/>
+      <c r="CC11"/>
+      <c r="CD11"/>
+      <c r="CE11"/>
+      <c r="CF11"/>
+      <c r="CG11"/>
+      <c r="CH11"/>
+      <c r="CI11"/>
+      <c r="CJ11"/>
+      <c r="CK11"/>
+      <c r="CL11"/>
+      <c r="CM11"/>
+      <c r="CN11"/>
+      <c r="CO11"/>
+      <c r="CP11"/>
+      <c r="CQ11"/>
+      <c r="CR11"/>
+      <c r="CS11"/>
+      <c r="CT11"/>
+      <c r="CU11"/>
+      <c r="CV11"/>
+      <c r="CW11"/>
+      <c r="CX11"/>
+      <c r="CY11"/>
+      <c r="CZ11"/>
+      <c r="DA11"/>
+      <c r="DB11"/>
+      <c r="DC11"/>
+      <c r="DD11"/>
+      <c r="DE11"/>
+      <c r="DF11"/>
+      <c r="DG11"/>
+      <c r="DH11"/>
+      <c r="DI11"/>
+      <c r="DJ11"/>
+      <c r="DK11"/>
+    </row>
+    <row r="12" spans="1:115">
+      <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -1258,116 +1493,9 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
-      <c r="AF12"/>
-      <c r="AG12"/>
-      <c r="AH12"/>
-      <c r="AI12"/>
-      <c r="AJ12"/>
-      <c r="AK12"/>
-      <c r="AL12"/>
-      <c r="AM12"/>
-      <c r="AN12"/>
-      <c r="AO12"/>
-      <c r="AP12"/>
-      <c r="AQ12"/>
-      <c r="AR12"/>
-      <c r="AS12"/>
-      <c r="AT12"/>
-      <c r="AU12"/>
-      <c r="AV12"/>
-      <c r="AW12"/>
-      <c r="AX12"/>
-      <c r="AY12"/>
-      <c r="AZ12"/>
-      <c r="BA12"/>
-      <c r="BB12"/>
-      <c r="BC12"/>
-      <c r="BD12"/>
-      <c r="BE12"/>
-      <c r="BF12"/>
-      <c r="BG12"/>
-      <c r="BH12"/>
-      <c r="BI12"/>
-      <c r="BJ12"/>
-      <c r="BK12"/>
-      <c r="BL12"/>
-      <c r="BM12"/>
-      <c r="BN12"/>
-      <c r="BO12"/>
-      <c r="BP12"/>
-      <c r="BQ12"/>
-      <c r="BR12"/>
-      <c r="BS12"/>
-      <c r="BT12"/>
-      <c r="BU12"/>
-      <c r="BV12"/>
-      <c r="BW12"/>
-      <c r="BX12"/>
-      <c r="BY12"/>
-      <c r="BZ12"/>
-      <c r="CA12"/>
-      <c r="CB12"/>
-      <c r="CC12"/>
-      <c r="CD12"/>
-      <c r="CE12"/>
-      <c r="CF12"/>
-      <c r="CG12"/>
-      <c r="CH12"/>
-      <c r="CI12"/>
-      <c r="CJ12"/>
-      <c r="CK12"/>
-      <c r="CL12"/>
-      <c r="CM12"/>
-      <c r="CN12"/>
-      <c r="CO12"/>
-      <c r="CP12"/>
-      <c r="CQ12"/>
-      <c r="CR12"/>
-      <c r="CS12"/>
-      <c r="CT12"/>
-      <c r="CU12"/>
-      <c r="CV12"/>
-      <c r="CW12"/>
-      <c r="CX12"/>
-      <c r="CY12"/>
-      <c r="CZ12"/>
-      <c r="DA12"/>
-      <c r="DB12"/>
-      <c r="DC12"/>
-      <c r="DD12"/>
-      <c r="DE12"/>
-      <c r="DF12"/>
-      <c r="DG12"/>
-      <c r="DH12"/>
-      <c r="DI12"/>
-      <c r="DJ12"/>
-      <c r="DK12"/>
-      <c r="DL12"/>
-    </row>
-    <row r="13" spans="1:116" s="2" customFormat="1">
-      <c r="A13" s="24"/>
+    </row>
+    <row r="13" spans="1:115">
+      <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -1376,116 +1504,9 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-      <c r="AF13"/>
-      <c r="AG13"/>
-      <c r="AH13"/>
-      <c r="AI13"/>
-      <c r="AJ13"/>
-      <c r="AK13"/>
-      <c r="AL13"/>
-      <c r="AM13"/>
-      <c r="AN13"/>
-      <c r="AO13"/>
-      <c r="AP13"/>
-      <c r="AQ13"/>
-      <c r="AR13"/>
-      <c r="AS13"/>
-      <c r="AT13"/>
-      <c r="AU13"/>
-      <c r="AV13"/>
-      <c r="AW13"/>
-      <c r="AX13"/>
-      <c r="AY13"/>
-      <c r="AZ13"/>
-      <c r="BA13"/>
-      <c r="BB13"/>
-      <c r="BC13"/>
-      <c r="BD13"/>
-      <c r="BE13"/>
-      <c r="BF13"/>
-      <c r="BG13"/>
-      <c r="BH13"/>
-      <c r="BI13"/>
-      <c r="BJ13"/>
-      <c r="BK13"/>
-      <c r="BL13"/>
-      <c r="BM13"/>
-      <c r="BN13"/>
-      <c r="BO13"/>
-      <c r="BP13"/>
-      <c r="BQ13"/>
-      <c r="BR13"/>
-      <c r="BS13"/>
-      <c r="BT13"/>
-      <c r="BU13"/>
-      <c r="BV13"/>
-      <c r="BW13"/>
-      <c r="BX13"/>
-      <c r="BY13"/>
-      <c r="BZ13"/>
-      <c r="CA13"/>
-      <c r="CB13"/>
-      <c r="CC13"/>
-      <c r="CD13"/>
-      <c r="CE13"/>
-      <c r="CF13"/>
-      <c r="CG13"/>
-      <c r="CH13"/>
-      <c r="CI13"/>
-      <c r="CJ13"/>
-      <c r="CK13"/>
-      <c r="CL13"/>
-      <c r="CM13"/>
-      <c r="CN13"/>
-      <c r="CO13"/>
-      <c r="CP13"/>
-      <c r="CQ13"/>
-      <c r="CR13"/>
-      <c r="CS13"/>
-      <c r="CT13"/>
-      <c r="CU13"/>
-      <c r="CV13"/>
-      <c r="CW13"/>
-      <c r="CX13"/>
-      <c r="CY13"/>
-      <c r="CZ13"/>
-      <c r="DA13"/>
-      <c r="DB13"/>
-      <c r="DC13"/>
-      <c r="DD13"/>
-      <c r="DE13"/>
-      <c r="DF13"/>
-      <c r="DG13"/>
-      <c r="DH13"/>
-      <c r="DI13"/>
-      <c r="DJ13"/>
-      <c r="DK13"/>
-      <c r="DL13"/>
-    </row>
-    <row r="14" spans="1:116">
-      <c r="A14" s="24"/>
+    </row>
+    <row r="14" spans="1:115">
+      <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -1494,10 +1515,9 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:116" s="2" customFormat="1">
-      <c r="A15" s="24"/>
+    </row>
+    <row r="15" spans="1:115">
+      <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -1506,116 +1526,9 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15"/>
-      <c r="AD15"/>
-      <c r="AE15"/>
-      <c r="AF15"/>
-      <c r="AG15"/>
-      <c r="AH15"/>
-      <c r="AI15"/>
-      <c r="AJ15"/>
-      <c r="AK15"/>
-      <c r="AL15"/>
-      <c r="AM15"/>
-      <c r="AN15"/>
-      <c r="AO15"/>
-      <c r="AP15"/>
-      <c r="AQ15"/>
-      <c r="AR15"/>
-      <c r="AS15"/>
-      <c r="AT15"/>
-      <c r="AU15"/>
-      <c r="AV15"/>
-      <c r="AW15"/>
-      <c r="AX15"/>
-      <c r="AY15"/>
-      <c r="AZ15"/>
-      <c r="BA15"/>
-      <c r="BB15"/>
-      <c r="BC15"/>
-      <c r="BD15"/>
-      <c r="BE15"/>
-      <c r="BF15"/>
-      <c r="BG15"/>
-      <c r="BH15"/>
-      <c r="BI15"/>
-      <c r="BJ15"/>
-      <c r="BK15"/>
-      <c r="BL15"/>
-      <c r="BM15"/>
-      <c r="BN15"/>
-      <c r="BO15"/>
-      <c r="BP15"/>
-      <c r="BQ15"/>
-      <c r="BR15"/>
-      <c r="BS15"/>
-      <c r="BT15"/>
-      <c r="BU15"/>
-      <c r="BV15"/>
-      <c r="BW15"/>
-      <c r="BX15"/>
-      <c r="BY15"/>
-      <c r="BZ15"/>
-      <c r="CA15"/>
-      <c r="CB15"/>
-      <c r="CC15"/>
-      <c r="CD15"/>
-      <c r="CE15"/>
-      <c r="CF15"/>
-      <c r="CG15"/>
-      <c r="CH15"/>
-      <c r="CI15"/>
-      <c r="CJ15"/>
-      <c r="CK15"/>
-      <c r="CL15"/>
-      <c r="CM15"/>
-      <c r="CN15"/>
-      <c r="CO15"/>
-      <c r="CP15"/>
-      <c r="CQ15"/>
-      <c r="CR15"/>
-      <c r="CS15"/>
-      <c r="CT15"/>
-      <c r="CU15"/>
-      <c r="CV15"/>
-      <c r="CW15"/>
-      <c r="CX15"/>
-      <c r="CY15"/>
-      <c r="CZ15"/>
-      <c r="DA15"/>
-      <c r="DB15"/>
-      <c r="DC15"/>
-      <c r="DD15"/>
-      <c r="DE15"/>
-      <c r="DF15"/>
-      <c r="DG15"/>
-      <c r="DH15"/>
-      <c r="DI15"/>
-      <c r="DJ15"/>
-      <c r="DK15"/>
-      <c r="DL15"/>
-    </row>
-    <row r="16" spans="1:116">
-      <c r="A16" s="24"/>
+    </row>
+    <row r="16" spans="1:115">
+      <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -1624,10 +1537,9 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="24"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -1636,93 +1548,86 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="24"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="19"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="24"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="19"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="24"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="19"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="24"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="24"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="24"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="24"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -1731,9 +1636,9 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25"/>
-    </row>
-    <row r="26" spans="1:10">
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -1742,9 +1647,9 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26"/>
-    </row>
-    <row r="27" spans="1:10">
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -1753,9 +1658,9 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27"/>
-    </row>
-    <row r="28" spans="1:10">
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -1764,9 +1669,9 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
-      <c r="J28"/>
-    </row>
-    <row r="29" spans="1:10">
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -1775,9 +1680,9 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
-      <c r="J29"/>
-    </row>
-    <row r="30" spans="1:10">
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -1786,9 +1691,9 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30"/>
-    </row>
-    <row r="31" spans="1:10">
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -1797,9 +1702,9 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31"/>
-    </row>
-    <row r="32" spans="1:10">
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -1808,9 +1713,9 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
-      <c r="J32"/>
-    </row>
-    <row r="33" spans="2:10">
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -1819,51 +1724,6 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
-      <c r="J33"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1874,10 +1734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AY125"/>
+  <dimension ref="A1:AY123"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1974,22 +1834,22 @@
         <v>19</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:51">
@@ -2116,7 +1976,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D5" s="15">
         <v>1</v>
@@ -2171,10 +2031,10 @@
         <v>24</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D6" s="15">
         <v>1</v>
@@ -2223,13 +2083,20 @@
       <c r="AP6"/>
       <c r="AQ6"/>
       <c r="AR6"/>
-    </row>
-    <row r="7" spans="1:51" ht="16" customHeight="1">
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+      <c r="AY6"/>
+    </row>
+    <row r="7" spans="1:51">
       <c r="A7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>44</v>
@@ -2283,24 +2150,12 @@
       <c r="AR7"/>
     </row>
     <row r="8" spans="1:51">
-      <c r="A8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="15">
-        <v>1</v>
-      </c>
-      <c r="E8" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0.6</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -2339,33 +2194,14 @@
       <c r="AP8"/>
       <c r="AQ8"/>
       <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
-      <c r="AX8"/>
-      <c r="AY8"/>
     </row>
     <row r="9" spans="1:51">
-      <c r="A9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="15">
-        <v>1</v>
-      </c>
-      <c r="E9" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0.6</v>
-      </c>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -2406,24 +2242,12 @@
       <c r="AR9"/>
     </row>
     <row r="10" spans="1:51">
-      <c r="A10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="15">
-        <v>1</v>
-      </c>
-      <c r="E10" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0.6</v>
-      </c>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -2555,7 +2379,7 @@
       <c r="AQ12"/>
       <c r="AR12"/>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:51" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -2600,6 +2424,13 @@
       <c r="AP13"/>
       <c r="AQ13"/>
       <c r="AR13"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="5"/>
+      <c r="AY13" s="5"/>
     </row>
     <row r="14" spans="1:51">
       <c r="A14" s="15"/>
@@ -2746,7 +2577,7 @@
       <c r="AQ16"/>
       <c r="AR16"/>
     </row>
-    <row r="17" spans="1:51" s="4" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:44">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -2791,15 +2622,8 @@
       <c r="AP17"/>
       <c r="AQ17"/>
       <c r="AR17"/>
-      <c r="AS17" s="5"/>
-      <c r="AT17" s="5"/>
-      <c r="AU17" s="5"/>
-      <c r="AV17" s="5"/>
-      <c r="AW17" s="5"/>
-      <c r="AX17" s="5"/>
-      <c r="AY17" s="5"/>
-    </row>
-    <row r="18" spans="1:51">
+    </row>
+    <row r="18" spans="1:44">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2845,7 +2669,7 @@
       <c r="AQ18"/>
       <c r="AR18"/>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:44">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -2891,7 +2715,7 @@
       <c r="AQ19"/>
       <c r="AR19"/>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:44">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -2937,7 +2761,7 @@
       <c r="AQ20"/>
       <c r="AR20"/>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:44">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -2983,7 +2807,7 @@
       <c r="AQ21"/>
       <c r="AR21"/>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:44">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -3029,7 +2853,7 @@
       <c r="AQ22"/>
       <c r="AR22"/>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:44">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -3075,7 +2899,7 @@
       <c r="AQ23"/>
       <c r="AR23"/>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:44">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -3121,7 +2945,7 @@
       <c r="AQ24"/>
       <c r="AR24"/>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:44">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -3167,7 +2991,7 @@
       <c r="AQ25"/>
       <c r="AR25"/>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:44">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -3213,7 +3037,7 @@
       <c r="AQ26"/>
       <c r="AR26"/>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:44">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -3259,19 +3083,19 @@
       <c r="AQ27"/>
       <c r="AR27"/>
     </row>
-    <row r="28" spans="1:51">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
+    <row r="28" spans="1:44">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
@@ -3305,19 +3129,19 @@
       <c r="AQ28"/>
       <c r="AR28"/>
     </row>
-    <row r="29" spans="1:51">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
+    <row r="29" spans="1:44">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
@@ -3351,7 +3175,7 @@
       <c r="AQ29"/>
       <c r="AR29"/>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:44">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -3397,7 +3221,7 @@
       <c r="AQ30"/>
       <c r="AR30"/>
     </row>
-    <row r="31" spans="1:51">
+    <row r="31" spans="1:44">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -3443,7 +3267,7 @@
       <c r="AQ31"/>
       <c r="AR31"/>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="1:44">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -7675,98 +7499,6 @@
       <c r="AQ123"/>
       <c r="AR123"/>
     </row>
-    <row r="124" spans="1:44">
-      <c r="A124"/>
-      <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
-      <c r="F124"/>
-      <c r="G124"/>
-      <c r="H124"/>
-      <c r="I124"/>
-      <c r="J124"/>
-      <c r="K124"/>
-      <c r="L124"/>
-      <c r="M124"/>
-      <c r="N124"/>
-      <c r="O124"/>
-      <c r="P124"/>
-      <c r="Q124"/>
-      <c r="R124"/>
-      <c r="S124"/>
-      <c r="T124"/>
-      <c r="U124"/>
-      <c r="V124"/>
-      <c r="W124"/>
-      <c r="X124"/>
-      <c r="Y124"/>
-      <c r="Z124"/>
-      <c r="AA124"/>
-      <c r="AB124"/>
-      <c r="AC124"/>
-      <c r="AD124"/>
-      <c r="AE124"/>
-      <c r="AF124"/>
-      <c r="AG124"/>
-      <c r="AH124"/>
-      <c r="AI124"/>
-      <c r="AJ124"/>
-      <c r="AK124"/>
-      <c r="AL124"/>
-      <c r="AM124"/>
-      <c r="AN124"/>
-      <c r="AO124"/>
-      <c r="AP124"/>
-      <c r="AQ124"/>
-      <c r="AR124"/>
-    </row>
-    <row r="125" spans="1:44">
-      <c r="A125"/>
-      <c r="B125"/>
-      <c r="C125"/>
-      <c r="D125"/>
-      <c r="E125"/>
-      <c r="F125"/>
-      <c r="G125"/>
-      <c r="H125"/>
-      <c r="I125"/>
-      <c r="J125"/>
-      <c r="K125"/>
-      <c r="L125"/>
-      <c r="M125"/>
-      <c r="N125"/>
-      <c r="O125"/>
-      <c r="P125"/>
-      <c r="Q125"/>
-      <c r="R125"/>
-      <c r="S125"/>
-      <c r="T125"/>
-      <c r="U125"/>
-      <c r="V125"/>
-      <c r="W125"/>
-      <c r="X125"/>
-      <c r="Y125"/>
-      <c r="Z125"/>
-      <c r="AA125"/>
-      <c r="AB125"/>
-      <c r="AC125"/>
-      <c r="AD125"/>
-      <c r="AE125"/>
-      <c r="AF125"/>
-      <c r="AG125"/>
-      <c r="AH125"/>
-      <c r="AI125"/>
-      <c r="AJ125"/>
-      <c r="AK125"/>
-      <c r="AL125"/>
-      <c r="AM125"/>
-      <c r="AN125"/>
-      <c r="AO125"/>
-      <c r="AP125"/>
-      <c r="AQ125"/>
-      <c r="AR125"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/stepbystep.xlsx
+++ b/stepbystep.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihir/Library/CloudStorage/iCloud Drive/Documents/Summer/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD69356-35F6-CD4D-80D5-7D67118475E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC489622-1F3F-1442-A8D9-97A04F89CBBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1180" windowWidth="25440" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="1180" windowWidth="25440" windowHeight="16780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
     <sheet name="reactions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -164,7 +165,7 @@
     <t>Ras family of GTPases</t>
   </si>
   <si>
-    <t>FPR1 =&gt; Sos</t>
+    <t>FPR1 ===&gt; Sos</t>
   </si>
 </sst>
 </file>
@@ -715,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DK33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1736,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY123"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/stepbystep.xlsx
+++ b/stepbystep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihir/Library/CloudStorage/iCloud Drive/Documents/Summer/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC489622-1F3F-1442-A8D9-97A04F89CBBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B235960-3883-F141-B684-8CB3A8DD9717}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="1180" windowWidth="25440" windowHeight="16780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="reactions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
